--- a/release/figures/SBharadwaj_20240318_Sample_3_6_full_cca.cluster.0.5_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_3_6_full_cca.cluster.0.5_speed_coherence.xlsx
@@ -572,76 +572,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5102278590202332</v>
+        <v>0.510281503200531</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6553383469581604</v>
+        <v>0.6553458571434021</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7069065570831299</v>
+        <v>0.7067907452583313</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6801735758781433</v>
+        <v>0.6804861426353455</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8786565661430359</v>
+        <v>0.8786682486534119</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5260245203971863</v>
+        <v>0.5259019136428833</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9980975389480591</v>
+        <v>0.9979268312454224</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7307468056678772</v>
+        <v>0.7306168675422668</v>
       </c>
       <c r="J2" t="n">
-        <v>1.049440741539001</v>
+        <v>1.049802660942078</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5385000109672546</v>
+        <v>0.5383214354515076</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6771040558815002</v>
+        <v>0.6770135760307312</v>
       </c>
       <c r="M2" t="n">
         <v>0.7284862399101257</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7761792540550232</v>
+        <v>0.77632075548172</v>
       </c>
       <c r="O2" t="n">
-        <v>1.665572166442871</v>
+        <v>1.665522336959839</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4875757396221161</v>
+        <v>0.4874545335769653</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01891028881073</v>
+        <v>1.018974423408508</v>
       </c>
       <c r="R2" t="n">
-        <v>1.460723638534546</v>
+        <v>1.460065722465515</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4809401631355286</v>
+        <v>0.4812820553779602</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8115584850311279</v>
+        <v>0.8119480609893799</v>
       </c>
       <c r="U2" t="n">
         <v>1.868961095809937</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6119999885559082</v>
+        <v>0.6121428608894348</v>
       </c>
       <c r="W2" t="n">
         <v>0.9014893174171448</v>
       </c>
       <c r="X2" t="n">
-        <v>1.217249989509583</v>
+        <v>1.216500043869019</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5743749737739563</v>
+        <v>0.5746874809265137</v>
       </c>
       <c r="Z2" t="n">
         <v>0.5803225636482239</v>
@@ -657,82 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7227204403423032</v>
+        <v>0.7224973268516598</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5886775850913578</v>
+        <v>0.588646862941577</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6259768282188868</v>
+        <v>0.6258932168482255</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7760760223242903</v>
+        <v>0.7761229785564528</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8596787404651954</v>
+        <v>0.8594886877826441</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7218316082048333</v>
+        <v>0.721710274234127</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8435083436893254</v>
+        <v>0.8435602618426812</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5445651323474073</v>
+        <v>0.5448673168656888</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8327594392589832</v>
+        <v>0.8327769533191857</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6054815438642566</v>
+        <v>0.6050693270467621</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7515430050265736</v>
+        <v>0.7515860200265414</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5204323161769351</v>
+        <v>0.5207620988335084</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5694006662464367</v>
+        <v>0.5695501159665719</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8781898416096892</v>
+        <v>0.878237010234624</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6401852873295094</v>
+        <v>0.6401676256830494</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.792090406593604</v>
+        <v>0.7921124324202538</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6616825131013205</v>
+        <v>0.6615156072535013</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7104102334915063</v>
+        <v>0.7105522769638616</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6518196062995242</v>
+        <v>0.6508591254423191</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9314853699950428</v>
+        <v>0.9314680954852661</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7507552023444857</v>
+        <v>0.7507159556661334</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5394701818202404</v>
+        <v>0.5393087987570052</v>
       </c>
       <c r="X3" t="n">
-        <v>0.56423883382231</v>
+        <v>0.5635877481661737</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6714139860123396</v>
+        <v>0.6709439121186733</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6116386627958666</v>
+        <v>0.6117435684127193</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.5897706595283968</v>
+        <v>0.5897338480033256</v>
       </c>
     </row>
   </sheetData>

--- a/release/figures/SBharadwaj_20240318_Sample_3_6_full_cca.cluster.0.5_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_3_6_full_cca.cluster.0.5_speed_coherence.xlsx
@@ -572,82 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.510281503200531</v>
+        <v>0.5148056745529175</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6553458571434021</v>
+        <v>0.6629398465156555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7067907452583313</v>
+        <v>0.7136476039886475</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6804861426353455</v>
+        <v>0.68666672706604</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8786682486534119</v>
+        <v>0.883446216583252</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5259019136428833</v>
+        <v>0.5312259197235107</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9979268312454224</v>
+        <v>1.002756118774414</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7306168675422668</v>
+        <v>0.7355519533157349</v>
       </c>
       <c r="J2" t="n">
-        <v>1.049802660942078</v>
+        <v>1.061414480209351</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5383214354515076</v>
+        <v>0.5461071729660034</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6770135760307312</v>
+        <v>0.6819004416465759</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7284862399101257</v>
+        <v>0.7338073253631592</v>
       </c>
       <c r="N2" t="n">
-        <v>0.77632075548172</v>
+        <v>0.7837736010551453</v>
       </c>
       <c r="O2" t="n">
-        <v>1.665522336959839</v>
+        <v>1.66850745677948</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4874545335769653</v>
+        <v>0.4972121119499207</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.018974423408508</v>
+        <v>1.026025652885437</v>
       </c>
       <c r="R2" t="n">
-        <v>1.460065722465515</v>
+        <v>1.464407920837402</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4812820553779602</v>
+        <v>0.4847008585929871</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8119480609893799</v>
+        <v>0.8216882944107056</v>
       </c>
       <c r="U2" t="n">
-        <v>1.868961095809937</v>
+        <v>1.870259642601013</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6121428608894348</v>
+        <v>0.6150000095367432</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9014893174171448</v>
+        <v>0.9100000262260437</v>
       </c>
       <c r="X2" t="n">
-        <v>1.216500043869019</v>
+        <v>1.222249984741211</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5746874809265137</v>
+        <v>0.5784375071525574</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5803225636482239</v>
+        <v>0.5848386883735657</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7455555200576782</v>
+        <v>0.7611110806465149</v>
       </c>
     </row>
     <row r="3">
@@ -657,82 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7224973268516598</v>
+        <v>0.7166926632897463</v>
       </c>
       <c r="C3" t="n">
-        <v>0.588646862941577</v>
+        <v>0.5835545227379727</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6258932168482255</v>
+        <v>0.6203486396075281</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7761229785564528</v>
+        <v>0.7733893487386888</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8594886877826441</v>
+        <v>0.8573371648057321</v>
       </c>
       <c r="G3" t="n">
-        <v>0.721710274234127</v>
+        <v>0.7139464145470835</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8435602618426812</v>
+        <v>0.8430466332086702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5448673168656888</v>
+        <v>0.5398031697886718</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8327769533191857</v>
+        <v>0.8253312004043868</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6050693270467621</v>
+        <v>0.6001182696145926</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7515860200265414</v>
+        <v>0.7495647331033897</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5207620988335084</v>
+        <v>0.5150702552647766</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5695501159665719</v>
+        <v>0.5647471659588363</v>
       </c>
       <c r="O3" t="n">
-        <v>0.878237010234624</v>
+        <v>0.8766100233170524</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6401676256830494</v>
+        <v>0.6335157376008503</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7921124324202538</v>
+        <v>0.7872004396258256</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6615156072535013</v>
+        <v>0.6585794068676861</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7105522769638616</v>
+        <v>0.7107440870032351</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6508591254423191</v>
+        <v>0.6519794739879571</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9314680954852661</v>
+        <v>0.9299895716952039</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7507159556661334</v>
+        <v>0.7468285952295576</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5393087987570052</v>
+        <v>0.5313138990326131</v>
       </c>
       <c r="X3" t="n">
-        <v>0.5635877481661737</v>
+        <v>0.5624229532666505</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6709439121186733</v>
+        <v>0.6652234578505158</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6117435684127193</v>
+        <v>0.6044943625888517</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.5897338480033256</v>
+        <v>0.5913467510706849</v>
       </c>
     </row>
   </sheetData>
